--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang7/1.XuLyBH/XLBH2307_DLNgocHoan.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang7/1.XuLyBH/XLBH2307_DLNgocHoan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Model Khac" sheetId="59" r:id="rId1"/>
@@ -776,6 +776,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -793,30 +817,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showZeros="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1157,41 +1157,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -1224,57 +1224,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="72" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1305,16 +1305,16 @@
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="79"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1356,7 +1356,7 @@
       <c r="R6" s="57"/>
       <c r="S6" s="58"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1403,7 +1403,7 @@
       <c r="R7" s="57"/>
       <c r="S7" s="58"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="R8" s="57"/>
       <c r="S8" s="58"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1461,7 +1461,7 @@
       <c r="R9" s="57"/>
       <c r="S9" s="58"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="R10" s="57"/>
       <c r="S10" s="58"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1519,7 +1519,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="48"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1579,7 +1579,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1608,7 +1608,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="65"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="65"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -3367,13 +3367,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3385,6 +3378,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3395,8 +3395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3428,41 +3428,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -3495,57 +3495,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="72" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3576,16 +3576,16 @@
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="79"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3629,7 +3629,7 @@
       <c r="R6" s="57"/>
       <c r="S6" s="58"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3660,7 +3660,7 @@
       <c r="R7" s="57"/>
       <c r="S7" s="58"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="R8" s="57"/>
       <c r="S8" s="58"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -3718,7 +3718,7 @@
       <c r="R9" s="57"/>
       <c r="S9" s="58"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -3747,7 +3747,7 @@
       <c r="R10" s="57"/>
       <c r="S10" s="58"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="48"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -3805,7 +3805,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3836,7 +3836,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -3865,7 +3865,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -3894,7 +3894,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="65"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -3923,7 +3923,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="65"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -5624,13 +5624,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5642,6 +5635,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5685,41 +5685,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -5752,57 +5752,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="72" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -5833,16 +5833,16 @@
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="79"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5894,7 +5894,7 @@
       </c>
       <c r="S6" s="58"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="S7" s="58"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -5980,7 +5980,7 @@
       <c r="R8" s="57"/>
       <c r="S8" s="58"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -6009,7 +6009,7 @@
       <c r="R9" s="57"/>
       <c r="S9" s="58"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -6038,7 +6038,7 @@
       <c r="R10" s="57"/>
       <c r="S10" s="58"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -6067,7 +6067,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="48"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -6096,7 +6096,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6127,7 +6127,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -6156,7 +6156,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -6185,7 +6185,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="63"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -6214,7 +6214,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="63"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -7915,13 +7915,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7933,6 +7926,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7976,41 +7976,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -8043,57 +8043,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="72" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="62" t="s">
         <v>1</v>
       </c>
@@ -8124,16 +8124,16 @@
       <c r="K5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="79"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8187,7 +8187,7 @@
       </c>
       <c r="S6" s="58"/>
       <c r="T6" s="63"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="S7" s="58"/>
       <c r="T7" s="63"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -8271,7 +8271,7 @@
       <c r="R8" s="57"/>
       <c r="S8" s="58"/>
       <c r="T8" s="63"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -8300,7 +8300,7 @@
       <c r="R9" s="57"/>
       <c r="S9" s="58"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -8329,7 +8329,7 @@
       <c r="R10" s="57"/>
       <c r="S10" s="58"/>
       <c r="T10" s="63"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -8358,7 +8358,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="48"/>
       <c r="T11" s="63"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -8387,7 +8387,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8418,7 +8418,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="63"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -8447,7 +8447,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -8476,7 +8476,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="63"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -8505,7 +8505,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="63"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -10206,13 +10206,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10224,6 +10217,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10267,41 +10267,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -10334,57 +10334,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="72" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -10415,16 +10415,16 @@
       <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="79"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10478,7 +10478,7 @@
       </c>
       <c r="S6" s="58"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="S7" s="58"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -10586,7 +10586,7 @@
       </c>
       <c r="S8" s="58"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -10645,7 +10645,7 @@
       </c>
       <c r="S9" s="58"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -10700,7 +10700,7 @@
       </c>
       <c r="S10" s="58"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -10755,7 +10755,7 @@
       </c>
       <c r="S11" s="48"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -10784,7 +10784,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="3"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10815,7 +10815,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -10844,7 +10844,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -10873,7 +10873,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="60"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -10902,7 +10902,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="60"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -12603,6 +12603,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12614,13 +12621,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12663,41 +12663,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -12730,57 +12730,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="72" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -12811,16 +12811,16 @@
       <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="79"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12862,7 +12862,7 @@
       <c r="R6" s="57"/>
       <c r="S6" s="58"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12909,7 +12909,7 @@
       <c r="R7" s="57"/>
       <c r="S7" s="58"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -12938,7 +12938,7 @@
       <c r="R8" s="57"/>
       <c r="S8" s="58"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -12967,7 +12967,7 @@
       <c r="R9" s="57"/>
       <c r="S9" s="58"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -12996,7 +12996,7 @@
       <c r="R10" s="57"/>
       <c r="S10" s="58"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -13025,7 +13025,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="48"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -13054,7 +13054,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="3"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13085,7 +13085,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -13114,7 +13114,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -13143,7 +13143,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="60"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -13172,7 +13172,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="60"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -14873,6 +14873,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14884,13 +14891,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14933,41 +14933,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -15000,57 +15000,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="72" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="61" t="s">
         <v>1</v>
       </c>
@@ -15081,16 +15081,16 @@
       <c r="K5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="79"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15132,7 +15132,7 @@
       <c r="R6" s="57"/>
       <c r="S6" s="58"/>
       <c r="T6" s="60"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15163,7 +15163,7 @@
       <c r="R7" s="57"/>
       <c r="S7" s="58"/>
       <c r="T7" s="60"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -15192,7 +15192,7 @@
       <c r="R8" s="57"/>
       <c r="S8" s="58"/>
       <c r="T8" s="60"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -15221,7 +15221,7 @@
       <c r="R9" s="57"/>
       <c r="S9" s="58"/>
       <c r="T9" s="60"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -15250,7 +15250,7 @@
       <c r="R10" s="57"/>
       <c r="S10" s="58"/>
       <c r="T10" s="60"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -15279,7 +15279,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="48"/>
       <c r="T11" s="60"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -15308,7 +15308,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="3"/>
       <c r="T12" s="60"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15339,7 +15339,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="60"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -15368,7 +15368,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="60"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -15397,7 +15397,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="60"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -15426,7 +15426,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="60"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -17127,6 +17127,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17138,13 +17145,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17187,41 +17187,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="70"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="4"/>
       <c r="H2" s="13"/>
       <c r="I2" s="33"/>
@@ -17254,57 +17254,57 @@
       <c r="V3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="72" t="s">
+      <c r="K4" s="74"/>
+      <c r="L4" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="72" t="s">
+      <c r="M4" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="72" t="s">
+      <c r="Q4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="72" t="s">
+      <c r="R4" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="74" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="27" t="s">
         <v>1</v>
       </c>
@@ -17335,16 +17335,16 @@
       <c r="K5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="79"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="30"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17396,7 +17396,7 @@
       </c>
       <c r="S6" s="58"/>
       <c r="T6" s="9"/>
-      <c r="U6" s="74" t="s">
+      <c r="U6" s="66" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17427,7 +17427,7 @@
       <c r="R7" s="57"/>
       <c r="S7" s="58"/>
       <c r="T7" s="9"/>
-      <c r="U7" s="75"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -17456,7 +17456,7 @@
       <c r="R8" s="57"/>
       <c r="S8" s="58"/>
       <c r="T8" s="9"/>
-      <c r="U8" s="75"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -17485,7 +17485,7 @@
       <c r="R9" s="57"/>
       <c r="S9" s="58"/>
       <c r="T9" s="9"/>
-      <c r="U9" s="75"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -17514,7 +17514,7 @@
       <c r="R10" s="57"/>
       <c r="S10" s="58"/>
       <c r="T10" s="9"/>
-      <c r="U10" s="75"/>
+      <c r="U10" s="67"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -17543,7 +17543,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="48"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="75"/>
+      <c r="U11" s="67"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -17572,7 +17572,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="3"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="74" t="s">
+      <c r="U12" s="66" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17603,7 +17603,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="9"/>
-      <c r="U13" s="75"/>
+      <c r="U13" s="67"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -17632,7 +17632,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="75"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -17661,7 +17661,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="9"/>
-      <c r="U15" s="75"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -17690,7 +17690,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="9"/>
-      <c r="U16" s="76"/>
+      <c r="U16" s="68"/>
       <c r="V16" s="3" t="s">
         <v>24</v>
       </c>
@@ -19391,13 +19391,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19409,6 +19402,13 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
